--- a/Resultados/RESULTADOS_5.xlsx
+++ b/Resultados/RESULTADOS_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="E2" t="n">
-        <v>51.22</v>
+        <v>56.15</v>
       </c>
       <c r="F2" t="n">
         <v>45.25</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="E3" t="n">
-        <v>37.89</v>
+        <v>39.68</v>
       </c>
       <c r="F3" t="n">
         <v>34.33</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.86</v>
+        <v>2.77</v>
       </c>
       <c r="E4" t="n">
-        <v>35.02</v>
+        <v>36.1</v>
       </c>
       <c r="F4" t="n">
         <v>32</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="E5" t="n">
-        <v>33.38</v>
+        <v>34.13</v>
       </c>
       <c r="F5" t="n">
         <v>30.62</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3.03</v>
+        <v>2.97</v>
       </c>
       <c r="E6" t="n">
-        <v>33.05</v>
+        <v>33.63</v>
       </c>
       <c r="F6" t="n">
         <v>30.43</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="E7" t="n">
-        <v>32.49</v>
+        <v>32.94</v>
       </c>
       <c r="F7" t="n">
         <v>29.96</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>32.36</v>
       </c>
       <c r="F8" t="n">
         <v>29.54</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="E9" t="n">
-        <v>31.99</v>
+        <v>32.23</v>
       </c>
       <c r="F9" t="n">
         <v>29.51</v>
@@ -1232,7 +1232,7 @@
         <v>3.11</v>
       </c>
       <c r="E10" t="n">
-        <v>32.14</v>
+        <v>32.18</v>
       </c>
       <c r="F10" t="n">
         <v>29.49</v>
@@ -1295,6 +1295,88 @@
         <v>1</v>
       </c>
       <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>29.43</v>
+      </c>
+      <c r="G11" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>136.61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>21.61</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17082.76</v>
+      </c>
+      <c r="P11" t="n">
+        <v>239.57</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R11" t="n">
+        <v>132.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15929.81</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X11" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
         <v>10</v>
       </c>
     </row>
